--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddharth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddharth/Desktop/Hackathon DI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120296F9-9AAE-8A48-B86C-4F8BDEB08D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF685F-68B4-3448-9D6D-CD1C4775AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6D3E92FF-2E3B-7546-A951-E0295D925D86}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6D3E92FF-2E3B-7546-A951-E0295D925D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{25FB3418-404E-8A43-89EF-28DC23290559}" name="Untitled" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/siddharth/Desktop/Untitled.rtf" tab="0" comma="1">
+    <textPr sourceFile="/Users/siddharth/Desktop/Untitled.rtf" tab="0" comma="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Anxiety</t>
   </si>
@@ -179,21 +179,6 @@
     <t>Schizophrenia Spectrum</t>
   </si>
   <si>
-    <t>Precision (%)\</t>
-  </si>
-  <si>
-    <t>80%\</t>
-  </si>
-  <si>
-    <t>75%\</t>
-  </si>
-  <si>
-    <t>70%\</t>
-  </si>
-  <si>
-    <t>60%\</t>
-  </si>
-  <si>
     <t>Christopher a 47-year-old man struggles with difficulty concentrating and restlessness which have been present since childhood. He finds it challenging to stay focused on tasks or complete them often becoming easily distracted by his surroundings. Christopher's symptoms have caused him problems at work and in his personal life as he frequently forgets appointments or important deadlines. Despite his efforts to manage his symptoms Christopher feels as though he is constantly battling against his own mind.</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>Dialectical Behavior Therapy</t>
   </si>
   <si>
-    <t>65%\</t>
-  </si>
-  <si>
     <t>Nathan a 36-year-old man experiences intrusive thoughts and compulsive behaviors that he finds impossible to control. He frequently worries about germs and contamination leading him to engage in excessive handwashing and cleaning rituals. Nathan's OCD symptoms have become increasingly disruptive to his daily life causing him significant distress and anxiety. Despite his attempts to resist his compulsions Nathan feels as though he is trapped in a never-ending cycle of fear and obsession.</t>
   </si>
   <si>
@@ -254,9 +236,6 @@
     <t>Supportive Care</t>
   </si>
   <si>
-    <t>40%\</t>
-  </si>
-  <si>
     <t>Amanda a 30-year-old woman experiences constant feelings of nervousness and tension that leave her feeling on edge. She finds it difficult to relax or unwind as her mind is constantly racing with worries and concerns. Amanda's anxiety has caused problems in her relationships and at work as others find her jittery and irritable. Despite her attempts to calm her nerves Amanda feels as though she is constantly living in a state of high alert.</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t>Steven a 44-year-old man experiences delusions and paranoia that have been increasing in severity over time. He frequently believes that others are plotting against him or spying on him leading him to act defensively and withdraw from social interactions. Steven's symptoms have caused problems in his relationships and at work as others find his behavior erratic and unpredictable. Despite his attempts to rationalize his beliefs Steven feels as though he is constantly under threat and unable to trust those around him.</t>
   </si>
   <si>
-    <t>55%\</t>
-  </si>
-  <si>
     <t>Rebecca a 40-year-old woman experiences compulsive behaviors and rituals that she feels compelled to perform. She frequently checks and rechecks doors and appliances fearing that something terrible will happen if she doesn't. Rebecca's OCD symptoms have become increasingly time-consuming and disruptive to her daily life causing her significant distress and anxiety. Despite her attempts to resist her compulsions Rebecca feels as though she is trapped in a never-ending cycle of fear and doubt.</t>
   </si>
   <si>
@@ -362,10 +338,10 @@
     <t>Psychotherapy</t>
   </si>
   <si>
-    <t>65%}</t>
-  </si>
-  <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -401,13 +377,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A535634-0EF0-4C4E-B7F8-E8D5069E5F53}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1574,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1622,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1633,28 +1612,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
+      <c r="J2" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1665,28 +1644,28 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
+      <c r="J3" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1697,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1712,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
+      <c r="J4" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1729,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -1749,8 +1728,8 @@
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
+      <c r="J5" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1761,25 +1740,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
+      <c r="J6" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1790,7 +1769,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1810,8 +1789,8 @@
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
+      <c r="J7" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1822,28 +1801,28 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
+      <c r="J8" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1854,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1874,8 +1853,8 @@
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
+      <c r="J9" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1886,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1906,8 +1885,8 @@
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>70</v>
+      <c r="J10" s="3">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1918,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1938,8 +1917,8 @@
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
+      <c r="J11" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1950,19 +1929,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>33</v>
@@ -1970,8 +1949,8 @@
       <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
+      <c r="J12" s="3">
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1982,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1993,14 +1972,14 @@
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>41</v>
+      <c r="J13" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2011,19 +1990,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>36</v>
@@ -2031,8 +2010,8 @@
       <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
+      <c r="J14" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2043,7 +2022,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -2063,8 +2042,8 @@
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
+      <c r="J15" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2075,28 +2054,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
+      <c r="J16" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2107,28 +2086,28 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>70</v>
+      <c r="J17" s="3">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -2139,28 +2118,28 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
+      <c r="J18" s="3">
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2171,28 +2150,28 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>100</v>
+      <c r="J19" s="3">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
